--- a/data/inst_2.xlsx
+++ b/data/inst_2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://upm365-my.sharepoint.com/personal/marta_sierra_sanz_alumnos_upm_es/Documents/Escritorio/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://upm365-my.sharepoint.com/personal/alvaro_garcia_upm_es/Documents/investigacion/flexible_vrp/datos_ejecucion/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E3E49A97-86AB-49C2-B371-6C8F0DEBC07D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F6706F5-72C5-413B-BFDC-60B000E1F544}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5A598FCB-B967-4DAF-9410-AD9F1FA49DAC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{5A598FCB-B967-4DAF-9410-AD9F1FA49DAC}"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="28">
   <si>
     <t>origin</t>
   </si>
@@ -787,8 +787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{118A7758-BA92-46A5-BE73-1AD0F0A01B68}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -817,7 +817,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -890,7 +890,7 @@
         <v>24</v>
       </c>
       <c r="B12" s="2">
-        <v>30</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1542,10 +1542,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E770ECA-E10C-4651-A068-F1B5FC905D1A}">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1614,7 +1614,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1636,337 +1636,57 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C7">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C8">
-        <v>11</v>
+        <v>322</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C9">
-        <v>38</v>
+        <v>218</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C10">
-        <v>103</v>
+        <v>823</v>
       </c>
       <c r="D10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11">
-        <v>4</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12">
-        <v>108</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13">
-        <v>10</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14">
-        <v>38</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15">
-        <v>31</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16">
-        <v>11</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17">
-        <v>24</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18">
-        <v>322</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19">
-        <v>218</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20">
-        <v>823</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21">
-        <v>3</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23">
-        <v>240</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24">
-        <v>220</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>8</v>
-      </c>
-      <c r="B25" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25">
-        <v>374</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>8</v>
-      </c>
-      <c r="B26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26">
-        <v>212</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>9</v>
-      </c>
-      <c r="B27" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27">
-        <v>176</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>9</v>
-      </c>
-      <c r="B28" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>9</v>
-      </c>
-      <c r="B29" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29">
-        <v>198</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>9</v>
-      </c>
-      <c r="B30" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30">
-        <v>488</v>
-      </c>
-      <c r="D30">
         <v>0</v>
       </c>
     </row>

--- a/data/inst_2.xlsx
+++ b/data/inst_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://upm365-my.sharepoint.com/personal/alvaro_garcia_upm_es/Documents/investigacion/flexible_vrp/datos_ejecucion/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TFG\flexible-vrp\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F6706F5-72C5-413B-BFDC-60B000E1F544}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0986C463-4F68-4EB6-A80E-D8C98FB78608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{5A598FCB-B967-4DAF-9410-AD9F1FA49DAC}"/>
+    <workbookView xWindow="3870" yWindow="645" windowWidth="15375" windowHeight="8850" activeTab="2" xr2:uid="{5A598FCB-B967-4DAF-9410-AD9F1FA49DAC}"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="28">
   <si>
     <t>origin</t>
   </si>
@@ -788,7 +788,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -817,7 +817,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1542,10 +1542,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E770ECA-E10C-4651-A068-F1B5FC905D1A}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D7" sqref="A1:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1569,10 +1569,10 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1580,13 +1580,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C3">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -1594,13 +1594,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C4">
-        <v>98</v>
+        <v>23</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1608,85 +1608,43 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <v>28</v>
+        <v>450</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>158</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8">
-        <v>322</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9">
-        <v>218</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10">
-        <v>823</v>
-      </c>
-      <c r="D10">
         <v>0</v>
       </c>
     </row>

--- a/data/inst_2.xlsx
+++ b/data/inst_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TFG\flexible-vrp\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0986C463-4F68-4EB6-A80E-D8C98FB78608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0015FBC3-50B5-4BBB-917B-72AE6B529BC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3870" yWindow="645" windowWidth="15375" windowHeight="8850" activeTab="2" xr2:uid="{5A598FCB-B967-4DAF-9410-AD9F1FA49DAC}"/>
+    <workbookView xWindow="9960" yWindow="2130" windowWidth="10275" windowHeight="7875" firstSheet="2" activeTab="2" xr2:uid="{5A598FCB-B967-4DAF-9410-AD9F1FA49DAC}"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="3" r:id="rId1"/>
@@ -1545,7 +1545,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="A1:D7"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1614,7 +1614,7 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>450</v>
+        <v>50</v>
       </c>
       <c r="D5">
         <v>0</v>

--- a/data/inst_2.xlsx
+++ b/data/inst_2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TFG\flexible-vrp\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vrp_basic_mip\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0015FBC3-50B5-4BBB-917B-72AE6B529BC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45656479-959A-4C87-AF6A-B4455C955A5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9960" yWindow="2130" windowWidth="10275" windowHeight="7875" firstSheet="2" activeTab="2" xr2:uid="{5A598FCB-B967-4DAF-9410-AD9F1FA49DAC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{5A598FCB-B967-4DAF-9410-AD9F1FA49DAC}"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="37">
   <si>
     <t>origin</t>
   </si>
@@ -125,6 +125,33 @@
   </si>
   <si>
     <t>time</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>no_req_total</t>
+  </si>
+  <si>
+    <t>no_opt_total</t>
   </si>
 </sst>
 </file>
@@ -166,10 +193,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -785,18 +815,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{118A7758-BA92-46A5-BE73-1AD0F0A01B68}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="11.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -804,7 +835,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -812,15 +843,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -828,7 +859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -836,7 +867,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -844,7 +875,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -852,7 +883,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -860,7 +891,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -868,7 +899,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -876,7 +907,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -885,12 +916,30 @@
         <v>17.857142857142858</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B12" s="2">
-        <v>6</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13">
+        <f>SUM(comp_quantity_inst1!C2:C4)</f>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14">
+        <f>SUM(comp_quantity_inst1!C5:C7)</f>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -902,13 +951,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2A54DE7-45BC-48AF-A573-13FFF226C261}">
   <dimension ref="A1:C57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -919,7 +968,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -930,7 +979,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -941,7 +990,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -952,7 +1001,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -963,7 +1012,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -974,7 +1023,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -985,7 +1034,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -996,7 +1045,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1007,7 +1056,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1018,7 +1067,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1029,7 +1078,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1040,7 +1089,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1051,7 +1100,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -1062,7 +1111,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -1073,7 +1122,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -1084,7 +1133,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -1095,7 +1144,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -1106,7 +1155,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -1117,7 +1166,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -1128,7 +1177,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -1139,7 +1188,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -1150,7 +1199,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -1161,7 +1210,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>6</v>
       </c>
@@ -1172,7 +1221,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -1183,7 +1232,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -1194,7 +1243,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -1205,7 +1254,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -1216,7 +1265,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -1227,7 +1276,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -1238,7 +1287,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -1249,7 +1298,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>7</v>
       </c>
@@ -1260,7 +1309,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -1271,7 +1320,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -1282,7 +1331,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>7</v>
       </c>
@@ -1293,7 +1342,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -1304,7 +1353,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>3</v>
       </c>
@@ -1315,7 +1364,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>3</v>
       </c>
@@ -1326,7 +1375,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>3</v>
       </c>
@@ -1337,7 +1386,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>3</v>
       </c>
@@ -1348,7 +1397,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>3</v>
       </c>
@@ -1359,7 +1408,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>3</v>
       </c>
@@ -1370,7 +1419,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>3</v>
       </c>
@@ -1381,7 +1430,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>8</v>
       </c>
@@ -1392,7 +1441,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>8</v>
       </c>
@@ -1403,7 +1452,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>8</v>
       </c>
@@ -1414,7 +1463,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>8</v>
       </c>
@@ -1425,7 +1474,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>8</v>
       </c>
@@ -1436,7 +1485,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>8</v>
       </c>
@@ -1447,7 +1496,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>8</v>
       </c>
@@ -1458,7 +1507,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>9</v>
       </c>
@@ -1469,7 +1518,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>9</v>
       </c>
@@ -1480,7 +1529,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>9</v>
       </c>
@@ -1491,7 +1540,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>9</v>
       </c>
@@ -1502,7 +1551,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>9</v>
       </c>
@@ -1513,7 +1562,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>9</v>
       </c>
@@ -1524,7 +1573,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>9</v>
       </c>
@@ -1542,110 +1591,131 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E770ECA-E10C-4651-A068-F1B5FC905D1A}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="E1" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2">
+      <c r="B2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="3">
         <v>52</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="E2" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="3">
         <v>29</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4">
+      <c r="E3" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="3">
         <v>23</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="E4" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5">
+      <c r="B5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="3">
         <v>50</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="E5" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="3">
         <v>158</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7">
+      <c r="E6" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="3">
         <v>30</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="3">
         <v>0</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/data/inst_2.xlsx
+++ b/data/inst_2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vrp_basic_mip\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TFG\flexible-vrp\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45656479-959A-4C87-AF6A-B4455C955A5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0015FBC3-50B5-4BBB-917B-72AE6B529BC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{5A598FCB-B967-4DAF-9410-AD9F1FA49DAC}"/>
+    <workbookView xWindow="9960" yWindow="2130" windowWidth="10275" windowHeight="7875" firstSheet="2" activeTab="2" xr2:uid="{5A598FCB-B967-4DAF-9410-AD9F1FA49DAC}"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="28">
   <si>
     <t>origin</t>
   </si>
@@ -125,33 +125,6 @@
   </si>
   <si>
     <t>time</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>no_req_total</t>
-  </si>
-  <si>
-    <t>no_opt_total</t>
   </si>
 </sst>
 </file>
@@ -193,13 +166,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -815,19 +785,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{118A7758-BA92-46A5-BE73-1AD0F0A01B68}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="11.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -835,7 +804,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -843,15 +812,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -859,7 +828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -867,7 +836,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -875,7 +844,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -883,7 +852,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -891,7 +860,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -899,7 +868,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -907,7 +876,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -916,30 +885,12 @@
         <v>17.857142857142858</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B12" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13">
-        <f>SUM(comp_quantity_inst1!C2:C4)</f>
-        <v>104</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14">
-        <f>SUM(comp_quantity_inst1!C5:C7)</f>
-        <v>238</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -951,13 +902,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2A54DE7-45BC-48AF-A573-13FFF226C261}">
   <dimension ref="A1:C57"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -968,7 +919,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -979,7 +930,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -990,7 +941,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1001,7 +952,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1012,7 +963,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1023,7 +974,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1034,7 +985,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1045,7 +996,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1056,7 +1007,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1067,7 +1018,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1078,7 +1029,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1089,7 +1040,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1100,7 +1051,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -1111,7 +1062,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -1122,7 +1073,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -1133,7 +1084,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -1144,7 +1095,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -1155,7 +1106,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -1166,7 +1117,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -1177,7 +1128,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -1188,7 +1139,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -1199,7 +1150,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -1210,7 +1161,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>6</v>
       </c>
@@ -1221,7 +1172,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -1232,7 +1183,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -1243,7 +1194,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -1254,7 +1205,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -1265,7 +1216,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -1276,7 +1227,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -1287,7 +1238,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -1298,7 +1249,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>7</v>
       </c>
@@ -1309,7 +1260,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -1320,7 +1271,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -1331,7 +1282,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>7</v>
       </c>
@@ -1342,7 +1293,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -1353,7 +1304,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>3</v>
       </c>
@@ -1364,7 +1315,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>3</v>
       </c>
@@ -1375,7 +1326,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>3</v>
       </c>
@@ -1386,7 +1337,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>3</v>
       </c>
@@ -1397,7 +1348,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>3</v>
       </c>
@@ -1408,7 +1359,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>3</v>
       </c>
@@ -1419,7 +1370,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>3</v>
       </c>
@@ -1430,7 +1381,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>8</v>
       </c>
@@ -1441,7 +1392,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>8</v>
       </c>
@@ -1452,7 +1403,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>8</v>
       </c>
@@ -1463,7 +1414,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>8</v>
       </c>
@@ -1474,7 +1425,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>8</v>
       </c>
@@ -1485,7 +1436,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>8</v>
       </c>
@@ -1496,7 +1447,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>8</v>
       </c>
@@ -1507,7 +1458,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>9</v>
       </c>
@@ -1518,7 +1469,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>9</v>
       </c>
@@ -1529,7 +1480,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>9</v>
       </c>
@@ -1540,7 +1491,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>9</v>
       </c>
@@ -1551,7 +1502,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>9</v>
       </c>
@@ -1562,7 +1513,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>9</v>
       </c>
@@ -1573,7 +1524,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>9</v>
       </c>
@@ -1591,131 +1542,110 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E770ECA-E10C-4651-A068-F1B5FC905D1A}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="3">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2">
         <v>52</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="3">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3">
         <v>29</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3">
         <v>1</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="3">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4">
         <v>23</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4">
         <v>1</v>
       </c>
-      <c r="E4" s="3" t="s">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>50</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>158</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7">
         <v>30</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="3">
-        <v>50</v>
-      </c>
-      <c r="D5" s="3">
+      <c r="D7">
         <v>0</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="3">
-        <v>158</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="3">
-        <v>30</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/data/inst_2.xlsx
+++ b/data/inst_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TFG\flexible-vrp\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\flexible-vrp\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0015FBC3-50B5-4BBB-917B-72AE6B529BC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C197B6B6-AB4E-4DA2-BE85-8FDFA731D9F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9960" yWindow="2130" windowWidth="10275" windowHeight="7875" firstSheet="2" activeTab="2" xr2:uid="{5A598FCB-B967-4DAF-9410-AD9F1FA49DAC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{5A598FCB-B967-4DAF-9410-AD9F1FA49DAC}"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="30">
   <si>
     <t>origin</t>
   </si>
@@ -125,6 +125,12 @@
   </si>
   <si>
     <t>time</t>
+  </si>
+  <si>
+    <t>no_req_total</t>
+  </si>
+  <si>
+    <t>no_opt_total</t>
   </si>
 </sst>
 </file>
@@ -785,18 +791,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{118A7758-BA92-46A5-BE73-1AD0F0A01B68}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -804,7 +810,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -812,7 +818,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
@@ -820,7 +826,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -828,7 +834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -836,7 +842,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -844,7 +850,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -852,7 +858,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -860,7 +866,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -868,7 +874,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -876,7 +882,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -885,12 +891,28 @@
         <v>17.857142857142858</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B12" s="2">
-        <v>6</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14">
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -906,9 +928,9 @@
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -919,7 +941,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -930,7 +952,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -941,7 +963,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -952,7 +974,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -963,7 +985,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -974,7 +996,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -985,7 +1007,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -996,7 +1018,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1007,7 +1029,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1018,7 +1040,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1029,7 +1051,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1040,7 +1062,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1051,7 +1073,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -1062,7 +1084,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -1073,7 +1095,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -1084,7 +1106,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -1095,7 +1117,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -1106,7 +1128,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -1117,7 +1139,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -1128,7 +1150,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -1139,7 +1161,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -1150,7 +1172,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -1161,7 +1183,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>6</v>
       </c>
@@ -1172,7 +1194,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -1183,7 +1205,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -1194,7 +1216,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -1205,7 +1227,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -1216,7 +1238,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -1227,7 +1249,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -1238,7 +1260,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -1249,7 +1271,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>7</v>
       </c>
@@ -1260,7 +1282,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -1271,7 +1293,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -1282,7 +1304,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>7</v>
       </c>
@@ -1293,7 +1315,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -1304,7 +1326,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>3</v>
       </c>
@@ -1315,7 +1337,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>3</v>
       </c>
@@ -1326,7 +1348,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>3</v>
       </c>
@@ -1337,7 +1359,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>3</v>
       </c>
@@ -1348,7 +1370,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>3</v>
       </c>
@@ -1359,7 +1381,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>3</v>
       </c>
@@ -1370,7 +1392,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>3</v>
       </c>
@@ -1381,7 +1403,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>8</v>
       </c>
@@ -1392,7 +1414,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>8</v>
       </c>
@@ -1403,7 +1425,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>8</v>
       </c>
@@ -1414,7 +1436,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>8</v>
       </c>
@@ -1425,7 +1447,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>8</v>
       </c>
@@ -1436,7 +1458,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>8</v>
       </c>
@@ -1447,7 +1469,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>8</v>
       </c>
@@ -1458,7 +1480,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>9</v>
       </c>
@@ -1469,7 +1491,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>9</v>
       </c>
@@ -1480,7 +1502,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>9</v>
       </c>
@@ -1491,7 +1513,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>9</v>
       </c>
@@ -1502,7 +1524,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>9</v>
       </c>
@@ -1513,7 +1535,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>9</v>
       </c>
@@ -1524,7 +1546,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>9</v>
       </c>
@@ -1544,13 +1566,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E770ECA-E10C-4651-A068-F1B5FC905D1A}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1564,7 +1586,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1578,7 +1600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1592,7 +1614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1606,7 +1628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1620,7 +1642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1634,7 +1656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>10</v>
       </c>
